--- a/biology/Zoologie/Armorial_des_créatures_aquatiques/Armorial_des_créatures_aquatiques.xlsx
+++ b/biology/Zoologie/Armorial_des_créatures_aquatiques/Armorial_des_créatures_aquatiques.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Armorial_des_cr%C3%A9atures_aquatiques</t>
+          <t>Armorial_des_créatures_aquatiques</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les animaux aquatiques figurent sur les blasons à de nombreuses reprises. Dans de nombreux cas, la volonté semble d'avoir choisi des armes parlantes, ou d'avoir repris des armoiries de parents proches.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Armorial_des_cr%C3%A9atures_aquatiques</t>
+          <t>Armorial_des_créatures_aquatiques</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -508,27 +520,15 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Distinctions entre poissons</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Sans précision d'espèce
-Anguilles
-Bars et barbeaux
-Brochets
-Carpes
-Chabots
-Corégones
-Goujons
-Hippocampes
-Loches
-Ombres
-Perches
-Sardines
-Sargues
-Saumons
-Truites</t>
+          <t>Cétacés</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les cétacés sont héraldiquement des poissons et sont blasonnés comme tels.
+</t>
         </is>
       </c>
     </row>
@@ -538,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Armorial_des_cr%C3%A9atures_aquatiques</t>
+          <t>Armorial_des_créatures_aquatiques</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -553,16 +553,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Cétacés</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Les cétacés sont héraldiquement des poissons et sont blasonnés comme tels.
-Baleines
-Dauphins</t>
-        </is>
-      </c>
+          <t>Les crustacés</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -570,7 +566,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Armorial_des_cr%C3%A9atures_aquatiques</t>
+          <t>Armorial_des_créatures_aquatiques</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -585,67 +581,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Les crustacés</t>
+          <t>Les mollusques</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Armorial_des_cr%C3%A9atures_aquatiques</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Armorial_des_cr%C3%A9atures_aquatiques</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Les mollusques</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Armorial_des_cr%C3%A9atures_aquatiques</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Armorial_des_cr%C3%A9atures_aquatiques</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Les êtres fabuleux</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Les sirènes
-Autres</t>
-        </is>
-      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
